--- a/old_ref/X50/RAW/REF/reference.xlsx
+++ b/old_ref/X50/RAW/REF/reference.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>project</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>CR</t>
+  </si>
+  <si>
+    <t>T%</t>
   </si>
 </sst>
 </file>
@@ -394,9 +397,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
@@ -404,7 +409,7 @@
     <col min="3" max="3" width="10.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,28 +429,31 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>13</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -465,24 +473,27 @@
         <v>5.18</v>
       </c>
       <c r="G2">
+        <v>99</v>
+      </c>
+      <c r="H2">
         <v>6.4124999999999996</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>6.3179999999999996</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>12.728</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>15.57</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>0.25879999999999997</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>0.272725</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>1410.8</v>
       </c>
     </row>
